--- a/Output/Nuevo/Tasas_actualizadas.xlsx
+++ b/Output/Nuevo/Tasas_actualizadas.xlsx
@@ -1,192 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\COMPENDIOS_DT\Output\Nuevo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_3E5C72AEAF6D72C02CC558911B1E0CA184F1B29B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D6932C1-8F60-4205-AEFE-43BACC276CE4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="tabla" sheetId="1" r:id="rId1"/>
     <sheet name="tasas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>poblacion_afiliada</t>
-  </si>
-  <si>
-    <t>poblacion_afiliada_sind_dep</t>
-  </si>
-  <si>
-    <t>ft_ocupada3</t>
-  </si>
-  <si>
-    <t>Fuerza.de.trabajo.(Total)</t>
-  </si>
-  <si>
-    <t>Ocupados.(Total)</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Asalariados.(Total)./4</t>
-  </si>
-  <si>
-    <t>Personal.de.servicio.doméstico.(Total)./6</t>
-  </si>
-  <si>
-    <t>Asalariados.(Sector.privado)</t>
-  </si>
-  <si>
-    <t>Dependientes</t>
-  </si>
-  <si>
-    <t>tasa1</t>
-  </si>
-  <si>
-    <t>tasa2</t>
-  </si>
-  <si>
-    <t>tasa3</t>
-  </si>
-  <si>
-    <t>tasa4</t>
-  </si>
-  <si>
-    <t>tasa5</t>
-  </si>
-  <si>
-    <t>tasa6</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>tasa1=poblacion_afiliada/`Fuerza.de.trabajo.(Total)`/10,</t>
-  </si>
-  <si>
-    <t>tasa2=poblacion_afiliada/`Ocupados.(Total)`/10,</t>
-  </si>
-  <si>
-    <t>tasa3=poblacion_afiliada_sindicatos_dependientes/Dependientes/10,               ## considera sector privado, publico y servicio domestico</t>
-  </si>
-  <si>
-    <t>tasa4=poblacion_afiliada_sindicatos_dependientes/`Asalariados.(Total)./4`/10,   ## considera sector público y privado</t>
-  </si>
-  <si>
-    <t>tasa5=poblacion_afiliada_sindicatos_dependientes/`Asalariados.(Sector.privado)`/10,  ## solo sector privado</t>
-  </si>
-  <si>
-    <t>tasa6=poblacion_afiliada_sindicatos_dependientes/(`Asalariados.(Sector.privado)`+`Personal.de.servicio.doméstico.(Total)./6`</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,31 +53,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,27 +142,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,24 +176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,66 +351,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poblacion_afiliada</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>poblacion_afiliada_sind_dep</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ft_ocupada3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fuerza.de.trabajo.(Total)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ocupados.(Total)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Asalariados.(Total)./4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Personal.de.servicio.doméstico.(Total)./6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Asalariados.(Sector.privado)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Dependientes</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>tasa1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>tasa2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>tasa3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tasa4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tasa5</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tasa6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>606812</v>
       </c>
@@ -641,41 +456,43 @@
       <c r="E2">
         <v>4525.53</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="G2">
         <v>2833.59</v>
       </c>
       <c r="H2">
-        <v>279.08999999999997</v>
+        <v>279.09</v>
       </c>
       <c r="I2">
-        <v>2692.1799099999998</v>
+        <v>2692.17991</v>
       </c>
       <c r="J2">
         <v>3112.68</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>12.41282251119444</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>13.4086394300778</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>16.5717323978051</v>
       </c>
-      <c r="N2" s="2">
-        <v>18.203939172569068</v>
-      </c>
-      <c r="O2" s="2">
-        <v>19.160123663503601</v>
-      </c>
-      <c r="P2" s="2">
-        <v>17.360422163734022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>18.20393917256907</v>
+      </c>
+      <c r="O2">
+        <v>19.1601236635036</v>
+      </c>
+      <c r="P2">
+        <v>17.36042216373402</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>701355</v>
       </c>
@@ -686,13 +503,15 @@
         <v>2765416</v>
       </c>
       <c r="D3">
-        <v>4983.8900000000003</v>
+        <v>4983.89</v>
       </c>
       <c r="E3">
         <v>4630.67</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="G3">
         <v>2923.9</v>
@@ -701,31 +520,31 @@
         <v>275.13</v>
       </c>
       <c r="I3">
-        <v>2765.1408700000002</v>
+        <v>2765.14087</v>
       </c>
       <c r="J3">
         <v>3199.03</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>14.07244140621081</v>
       </c>
-      <c r="L3" s="2">
-        <v>15.145864421347239</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3">
+        <v>15.14586442134724</v>
+      </c>
+      <c r="M3">
         <v>18.34043444419089</v>
       </c>
-      <c r="N3" s="2">
-        <v>20.066212934778889</v>
-      </c>
-      <c r="O3" s="2">
-        <v>21.218304150992498</v>
-      </c>
-      <c r="P3" s="2">
-        <v>19.298148917895599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>20.06621293477889</v>
+      </c>
+      <c r="O3">
+        <v>21.2183041509925</v>
+      </c>
+      <c r="P3">
+        <v>19.2981489178956</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>724065</v>
       </c>
@@ -741,41 +560,43 @@
       <c r="E4">
         <v>4877.43</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="G4">
         <v>3085.98</v>
       </c>
       <c r="H4">
-        <v>281.35000000000002</v>
+        <v>281.35</v>
       </c>
       <c r="I4">
-        <v>2909.3976499999999</v>
+        <v>2909.39765</v>
       </c>
       <c r="J4">
         <v>3367.33</v>
       </c>
-      <c r="K4" s="2">
-        <v>13.924862494711331</v>
-      </c>
-      <c r="L4" s="2">
-        <v>14.845215615600839</v>
-      </c>
-      <c r="M4" s="2">
-        <v>17.890583934452518</v>
-      </c>
-      <c r="N4" s="2">
-        <v>19.521675448317879</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="K4">
+        <v>13.92486249471133</v>
+      </c>
+      <c r="L4">
+        <v>14.84521561560084</v>
+      </c>
+      <c r="M4">
+        <v>17.89058393445252</v>
+      </c>
+      <c r="N4">
+        <v>19.52167544831788</v>
+      </c>
+      <c r="O4">
         <v>20.70651978425844</v>
       </c>
-      <c r="P4" s="2">
-        <v>18.880684594408461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>18.88068459440846</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>684361</v>
       </c>
@@ -791,8 +612,10 @@
       <c r="E5">
         <v>5109.29</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="G5">
         <v>3281.44</v>
@@ -801,31 +624,31 @@
         <v>272.8</v>
       </c>
       <c r="I5">
-        <v>3067.3292000000001</v>
+        <v>3067.3292</v>
       </c>
       <c r="J5">
         <v>3554.24</v>
       </c>
-      <c r="K5" s="2">
-        <v>12.536403254081799</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5">
+        <v>12.5364032540818</v>
+      </c>
+      <c r="L5">
         <v>13.3944442378491</v>
       </c>
-      <c r="M5" s="2">
-        <v>16.010905284955442</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="M5">
+        <v>16.01090528495544</v>
+      </c>
+      <c r="N5">
         <v>17.34195962748062</v>
       </c>
-      <c r="O5" s="2">
-        <v>18.552491855129212</v>
-      </c>
-      <c r="P5" s="2">
-        <v>17.037245146085969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>18.55249185512921</v>
+      </c>
+      <c r="P5">
+        <v>17.03724514608597</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>661966</v>
       </c>
@@ -841,8 +664,10 @@
       <c r="E6">
         <v>5122.76</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="G6">
         <v>3242.92</v>
@@ -851,31 +676,31 @@
         <v>276.14</v>
       </c>
       <c r="I6">
-        <v>3037.8588599999998</v>
+        <v>3037.85886</v>
       </c>
       <c r="J6">
         <v>3519.06</v>
       </c>
-      <c r="K6" s="2">
-        <v>11.919090069375549</v>
-      </c>
-      <c r="L6" s="2">
-        <v>12.922057640803001</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="K6">
+        <v>11.91909006937555</v>
+      </c>
+      <c r="L6">
+        <v>12.922057640803</v>
+      </c>
+      <c r="M6">
         <v>15.56841883912181</v>
       </c>
-      <c r="N6" s="2">
-        <v>16.894095444845998</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="N6">
+        <v>16.894095444846</v>
+      </c>
+      <c r="O6">
         <v>18.03447840233104</v>
       </c>
-      <c r="P6" s="2">
-        <v>16.531749802714181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>16.53174980271418</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>637570</v>
       </c>
@@ -891,8 +716,10 @@
       <c r="E7">
         <v>5174.41</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="G7">
         <v>3319.12</v>
@@ -901,31 +728,31 @@
         <v>273.77</v>
       </c>
       <c r="I7">
-        <v>3100.3912300000002</v>
+        <v>3100.39123</v>
       </c>
       <c r="J7">
         <v>3592.89</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>11.5121410411972</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>12.32159801793828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>14.41997945943238</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>15.60937838945263</v>
       </c>
-      <c r="O7" s="2">
-        <v>16.710600745700081</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="O7">
+        <v>16.71060074570008</v>
+      </c>
+      <c r="P7">
         <v>15.35474936388858</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="C8">
         <v>3243452</v>
       </c>
@@ -935,8 +762,10 @@
       <c r="E8">
         <v>5298.68</v>
       </c>
-      <c r="F8" t="s">
-        <v>22</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="G8">
         <v>3447.76</v>
@@ -945,19 +774,13 @@
         <v>265.32</v>
       </c>
       <c r="I8">
-        <v>3243.1866799999998</v>
+        <v>3243.18668</v>
       </c>
       <c r="J8">
         <v>3713.08</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9">
       <c r="A9">
         <v>617761</v>
       </c>
@@ -973,8 +796,10 @@
       <c r="E9">
         <v>5380.19</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="G9">
         <v>3516.26</v>
@@ -983,31 +808,31 @@
         <v>271.36</v>
       </c>
       <c r="I9">
-        <v>3350.3826399999998</v>
+        <v>3350.38264</v>
       </c>
       <c r="J9">
         <v>3787.62</v>
       </c>
-      <c r="K9" s="2">
-        <v>10.868764316955851</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9">
+        <v>10.86876431695585</v>
+      </c>
+      <c r="L9">
         <v>11.4821409652819</v>
       </c>
-      <c r="M9" s="2">
-        <v>13.237494785643751</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9">
+        <v>13.23749478564375</v>
+      </c>
+      <c r="N9">
         <v>14.25907071718246</v>
       </c>
-      <c r="O9" s="2">
-        <v>14.965036948734911</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="O9">
+        <v>14.96503694873491</v>
+      </c>
+      <c r="P9">
         <v>13.84377770144375</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>611535</v>
       </c>
@@ -1018,19 +843,21 @@
         <v>3276276</v>
       </c>
       <c r="D10">
-        <v>5898.5931514246004</v>
+        <v>5898.5931514246</v>
       </c>
       <c r="E10">
-        <v>5467.4451540697373</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
+        <v>5467.445154069737</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="G10">
         <v>3508.73556788616</v>
       </c>
       <c r="H10">
-        <v>272.72875041129151</v>
+        <v>272.7287504112915</v>
       </c>
       <c r="I10">
         <v>3276.003271249589</v>
@@ -1038,26 +865,26 @@
       <c r="J10">
         <v>3781.464318297451</v>
       </c>
-      <c r="K10" s="2">
-        <v>10.367472112435911</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10">
+        <v>10.36747211243591</v>
+      </c>
+      <c r="L10">
         <v>11.18502303667004</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>12.9568061142144</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>13.9639192102235</v>
       </c>
-      <c r="O10" s="2">
-        <v>14.955937446702009</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="O10">
+        <v>14.95593744670201</v>
+      </c>
+      <c r="P10">
         <v>13.80653701123056</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>579996</v>
       </c>
@@ -1068,46 +895,48 @@
         <v>3192874</v>
       </c>
       <c r="D11">
-        <v>6043.8333441145824</v>
+        <v>6043.833344114582</v>
       </c>
       <c r="E11">
-        <v>5482.8005300548084</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
+        <v>5482.800530054808</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="G11">
-        <v>3507.3708787885989</v>
+        <v>3507.370878788599</v>
       </c>
       <c r="H11">
         <v>283.1447576038268</v>
       </c>
       <c r="I11">
-        <v>3192.5908552423962</v>
+        <v>3192.590855242396</v>
       </c>
       <c r="J11">
-        <v>3790.5156363924261</v>
-      </c>
-      <c r="K11" s="2">
+        <v>3790.515636392426</v>
+      </c>
+      <c r="K11">
         <v>9.596492275300637</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>10.57846253608286</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>12.21657010339422</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>13.20279537018734</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>14.50455197663722</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>13.32296387241027</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12">
         <v>595495</v>
       </c>
@@ -1118,46 +947,48 @@
         <v>3170319</v>
       </c>
       <c r="D12">
-        <v>6038.3977386904053</v>
+        <v>6038.397738690405</v>
       </c>
       <c r="E12">
-        <v>5501.4565968265488</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
+        <v>5501.456596826549</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="G12">
-        <v>3532.3880721484111</v>
+        <v>3532.388072148411</v>
       </c>
       <c r="H12">
-        <v>282.10348809619478</v>
+        <v>282.1034880961948</v>
       </c>
       <c r="I12">
-        <v>3170.0368965119042</v>
+        <v>3170.036896511904</v>
       </c>
       <c r="J12">
-        <v>3814.4915602446049</v>
-      </c>
-      <c r="K12" s="2">
-        <v>9.8618048325042871</v>
-      </c>
-      <c r="L12" s="2">
-        <v>10.824315152163599</v>
-      </c>
-      <c r="M12" s="2">
+        <v>3814.491560244605</v>
+      </c>
+      <c r="K12">
+        <v>9.861804832504287</v>
+      </c>
+      <c r="L12">
+        <v>10.8243151521636</v>
+      </c>
+      <c r="M12">
         <v>12.26467518963392</v>
       </c>
-      <c r="N12" s="2">
-        <v>13.244156373664261</v>
-      </c>
-      <c r="O12" s="2">
-        <v>14.758030119926181</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="N12">
+        <v>13.24415637366426</v>
+      </c>
+      <c r="O12">
+        <v>14.75803011992618</v>
+      </c>
+      <c r="P12">
         <v>13.5520270869028</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13">
         <v>599610</v>
       </c>
@@ -1168,46 +999,48 @@
         <v>3187987</v>
       </c>
       <c r="D13">
-        <v>6175.3667191227632</v>
+        <v>6175.366719122763</v>
       </c>
       <c r="E13">
-        <v>5641.6436226379392</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
+        <v>5641.643622637939</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="G13">
-        <v>3607.8041131119339</v>
+        <v>3607.804113111934</v>
       </c>
       <c r="H13">
-        <v>256.91820522455947</v>
+        <v>256.9182052245595</v>
       </c>
       <c r="I13">
-        <v>3187.7300817947762</v>
+        <v>3187.730081794776</v>
       </c>
       <c r="J13">
-        <v>3864.7223183364931</v>
-      </c>
-      <c r="K13" s="2">
-        <v>9.7097067635390104</v>
-      </c>
-      <c r="L13" s="2">
-        <v>10.628285657640181</v>
-      </c>
-      <c r="M13" s="2">
+        <v>3864.722318336493</v>
+      </c>
+      <c r="K13">
+        <v>9.70970676353901</v>
+      </c>
+      <c r="L13">
+        <v>10.62828565764018</v>
+      </c>
+      <c r="M13">
         <v>12.06135814178343</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>12.92026909958617</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>14.62288173839211</v>
       </c>
-      <c r="P13" s="2">
-        <v>13.532237870454709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>13.53223787045471</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>618930</v>
       </c>
@@ -1221,16 +1054,18 @@
         <v>6281.705813588329</v>
       </c>
       <c r="E14">
-        <v>5735.4235867775942</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
+        <v>5735.423586777594</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="G14">
-        <v>3655.1042631645719</v>
+        <v>3655.104263164572</v>
       </c>
       <c r="H14">
-        <v>264.24951902354218</v>
+        <v>264.2495190235422</v>
       </c>
       <c r="I14">
         <v>3252.913750480976</v>
@@ -1238,26 +1073,26 @@
       <c r="J14">
         <v>3919.353782188115</v>
       </c>
-      <c r="K14" s="2">
-        <v>9.8528969418013173</v>
-      </c>
-      <c r="L14" s="2">
-        <v>10.791356394789689</v>
-      </c>
-      <c r="M14" s="2">
-        <v>12.291541584976461</v>
-      </c>
-      <c r="N14" s="2">
-        <v>13.180171215770031</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="K14">
+        <v>9.852896941801317</v>
+      </c>
+      <c r="L14">
+        <v>10.79135639478969</v>
+      </c>
+      <c r="M14">
+        <v>12.29154158497646</v>
+      </c>
+      <c r="N14">
+        <v>13.18017121577003</v>
+      </c>
+      <c r="O14">
         <v>14.80976862447609</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>13.69708947483312</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15">
         <v>669507</v>
       </c>
@@ -1271,43 +1106,45 @@
         <v>6484.522265208916</v>
       </c>
       <c r="E15">
-        <v>5936.4073576994588</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
+        <v>5936.407357699459</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="G15">
-        <v>3753.8092042113062</v>
+        <v>3753.809204211306</v>
       </c>
       <c r="H15">
-        <v>284.52614998597051</v>
+        <v>284.5261499859705</v>
       </c>
       <c r="I15">
-        <v>3326.3894738500139</v>
+        <v>3326.389473850014</v>
       </c>
       <c r="J15">
         <v>4038.335354197277</v>
       </c>
-      <c r="K15" s="2">
-        <v>10.324692747098309</v>
-      </c>
-      <c r="L15" s="2">
-        <v>11.277982787546691</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="K15">
+        <v>10.32469274709831</v>
+      </c>
+      <c r="L15">
+        <v>11.27798278754669</v>
+      </c>
+      <c r="M15">
         <v>12.86884209504441</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>13.84425717260685</v>
       </c>
-      <c r="O15" s="2">
-        <v>15.623155498941211</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="O15">
+        <v>15.62315549894121</v>
+      </c>
+      <c r="P15">
         <v>14.392111423748</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16">
         <v>680351</v>
       </c>
@@ -1318,46 +1155,48 @@
         <v>3423609</v>
       </c>
       <c r="D16">
-        <v>6789.3471143715014</v>
+        <v>6789.347114371501</v>
       </c>
       <c r="E16">
-        <v>6186.6813048447921</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
+        <v>6186.681304844792</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="G16">
         <v>3909.454377486677</v>
       </c>
       <c r="H16">
-        <v>288.59297448033652</v>
+        <v>288.5929744803365</v>
       </c>
       <c r="I16">
-        <v>3423.3204070255201</v>
+        <v>3423.32040702552</v>
       </c>
       <c r="J16">
-        <v>4198.0473519670131</v>
-      </c>
-      <c r="K16" s="2">
+        <v>4198.047351967013</v>
+      </c>
+      <c r="K16">
         <v>10.020860452986</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>10.99702678182593</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>12.70054754742532</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>13.63809239136765</v>
       </c>
-      <c r="O16" s="2">
-        <v>15.574791039301781</v>
-      </c>
-      <c r="P16" s="2">
-        <v>14.363885823857791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>15.57479103930178</v>
+      </c>
+      <c r="P16">
+        <v>14.36388582385779</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>676368</v>
       </c>
@@ -1368,46 +1207,48 @@
         <v>3581293</v>
       </c>
       <c r="D17">
-        <v>6814.7271874772614</v>
+        <v>6814.727187477261</v>
       </c>
       <c r="E17">
-        <v>6273.6180864591033</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
+        <v>6273.618086459103</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="G17">
-        <v>4095.7109837144899</v>
+        <v>4095.71098371449</v>
       </c>
       <c r="H17">
-        <v>288.59347840094722</v>
+        <v>288.5934784009472</v>
       </c>
       <c r="I17">
-        <v>3581.0044065215989</v>
+        <v>3581.004406521599</v>
       </c>
       <c r="J17">
-        <v>4384.3044621154377</v>
-      </c>
-      <c r="K17" s="2">
-        <v>9.9250928378012464</v>
-      </c>
-      <c r="L17" s="2">
-        <v>10.781147189368509</v>
-      </c>
-      <c r="M17" s="2">
+        <v>4384.304462115438</v>
+      </c>
+      <c r="K17">
+        <v>9.925092837801246</v>
+      </c>
+      <c r="L17">
+        <v>10.78114718936851</v>
+      </c>
+      <c r="M17">
         <v>12.30128985476008</v>
       </c>
-      <c r="N17" s="2">
-        <v>13.168067818859461</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="N17">
+        <v>13.16806781885946</v>
+      </c>
+      <c r="O17">
         <v>15.0607466167257</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17">
         <v>13.93752053931555</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18">
         <v>703706</v>
       </c>
@@ -1418,19 +1259,21 @@
         <v>3933474</v>
       </c>
       <c r="D18">
-        <v>6820.9189999999999</v>
+        <v>6820.919</v>
       </c>
       <c r="E18">
         <v>6410.982</v>
       </c>
-      <c r="F18" t="s">
-        <v>32</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="G18">
-        <v>4271.4639999999999</v>
+        <v>4271.464</v>
       </c>
       <c r="H18">
-        <v>285.29500000000002</v>
+        <v>285.295</v>
       </c>
       <c r="I18">
         <v>3933.188705</v>
@@ -1438,26 +1281,26 @@
       <c r="J18">
         <v>4556.759</v>
       </c>
-      <c r="K18" s="2">
-        <v>10.316879587633281</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18">
+        <v>10.31687958763328</v>
+      </c>
+      <c r="L18">
         <v>10.97657113995953</v>
       </c>
-      <c r="M18" s="2">
-        <v>12.483785076191211</v>
-      </c>
-      <c r="N18" s="2">
-        <v>13.317588536389399</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="M18">
+        <v>12.48378507619121</v>
+      </c>
+      <c r="N18">
+        <v>13.3175885363894</v>
+      </c>
+      <c r="O18">
         <v>14.46297248023853</v>
       </c>
-      <c r="P18" s="2">
-        <v>13.484845261480039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>13.48484526148004</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>724606</v>
       </c>
@@ -1473,41 +1316,43 @@
       <c r="E19">
         <v>6567.241</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="G19">
-        <v>4461.7439999999997</v>
+        <v>4461.744</v>
       </c>
       <c r="H19">
-        <v>275.24900000000002</v>
+        <v>275.249</v>
       </c>
       <c r="I19">
-        <v>4099.2167509999999</v>
+        <v>4099.216751</v>
       </c>
       <c r="J19">
-        <v>4736.9930000000004</v>
-      </c>
-      <c r="K19" s="2">
-        <v>10.237338709563479</v>
-      </c>
-      <c r="L19" s="2">
+        <v>4736.993</v>
+      </c>
+      <c r="K19">
+        <v>10.23733870956348</v>
+      </c>
+      <c r="L19">
         <v>11.03364411325852</v>
       </c>
-      <c r="M19" s="2">
-        <v>12.818047229539919</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="M19">
+        <v>12.81804722953992</v>
+      </c>
+      <c r="N19">
         <v>13.60880409095636</v>
       </c>
-      <c r="O19" s="2">
-        <v>14.812341890725261</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19">
+        <v>14.81234189072526</v>
+      </c>
+      <c r="P19">
         <v>13.88032355405222</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20">
         <v>801251</v>
       </c>
@@ -1518,46 +1363,48 @@
         <v>4251018</v>
       </c>
       <c r="D20">
-        <v>7285.0879999999997</v>
+        <v>7285.088</v>
       </c>
       <c r="E20">
-        <v>6740.4080000000004</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
+        <v>6740.408</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="G20">
         <v>4632.24</v>
       </c>
       <c r="H20">
-        <v>271.69099999999997</v>
+        <v>271.691</v>
       </c>
       <c r="I20">
-        <v>4250.7463090000001</v>
+        <v>4250.746309</v>
       </c>
       <c r="J20">
-        <v>4903.9309999999996</v>
-      </c>
-      <c r="K20" s="2">
+        <v>4903.931</v>
+      </c>
+      <c r="K20">
         <v>10.99850818548795</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>11.88727744670649</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>13.98394471700356</v>
       </c>
-      <c r="N20" s="2">
-        <v>14.804133637289951</v>
-      </c>
-      <c r="O20" s="2">
-        <v>16.132767051942171</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="N20">
+        <v>14.80413363728995</v>
+      </c>
+      <c r="O20">
+        <v>16.13276705194217</v>
+      </c>
+      <c r="P20">
         <v>15.16357117068884</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21">
         <v>837055</v>
       </c>
@@ -1568,46 +1415,48 @@
         <v>4131857</v>
       </c>
       <c r="D21">
-        <v>7343.7780000000002</v>
+        <v>7343.778</v>
       </c>
       <c r="E21">
         <v>6710.99</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="G21">
-        <v>4530.2640000000001</v>
+        <v>4530.264</v>
       </c>
       <c r="H21">
-        <v>275.57299999999998</v>
+        <v>275.573</v>
       </c>
       <c r="I21">
-        <v>4131.5814270000001</v>
+        <v>4131.581427</v>
       </c>
       <c r="J21">
-        <v>4805.8370000000004</v>
-      </c>
-      <c r="K21" s="2">
+        <v>4805.837</v>
+      </c>
+      <c r="K21">
         <v>11.39815228619384</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>12.47289893145423</v>
       </c>
-      <c r="M21" s="2">
-        <v>14.832255026543759</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="M21">
+        <v>14.83225502654376</v>
+      </c>
+      <c r="N21">
         <v>15.73449141153805</v>
       </c>
-      <c r="O21" s="2">
-        <v>17.252812575391609</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="O21">
+        <v>17.25281257539161</v>
+      </c>
+      <c r="P21">
         <v>16.17401912746725</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22">
         <v>858571</v>
       </c>
@@ -1618,46 +1467,48 @@
         <v>4646299</v>
       </c>
       <c r="D22">
-        <v>8160.7158851421691</v>
+        <v>8160.715885142169</v>
       </c>
       <c r="E22">
-        <v>7572.3177515504012</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
+        <v>7572.317751550401</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="G22">
         <v>5294.65773103016</v>
       </c>
       <c r="H22">
-        <v>342.19623893886302</v>
+        <v>342.196238938863</v>
       </c>
       <c r="I22">
-        <v>4524.1406406573142</v>
+        <v>4524.140640657314</v>
       </c>
       <c r="J22">
-        <v>5636.8539699690227</v>
-      </c>
-      <c r="K22" s="2">
+        <v>5636.853969969023</v>
+      </c>
+      <c r="K22">
         <v>10.52078043254955</v>
       </c>
-      <c r="L22" s="2">
-        <v>11.338285425545051</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="L22">
+        <v>11.33828542554505</v>
+      </c>
+      <c r="M22">
         <v>13.03022934269905</v>
       </c>
-      <c r="N22" s="2">
-        <v>13.872379241728479</v>
-      </c>
-      <c r="O22" s="2">
-        <v>16.235016953259109</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="N22">
+        <v>13.87237924172848</v>
+      </c>
+      <c r="O22">
+        <v>16.23501695325911</v>
+      </c>
+      <c r="P22">
         <v>15.09338580893624</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23">
         <v>892365</v>
       </c>
@@ -1673,41 +1524,43 @@
       <c r="E23">
         <v>7786.90190352638</v>
       </c>
-      <c r="F23" t="s">
-        <v>37</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="G23">
         <v>5545.8441958443</v>
       </c>
       <c r="H23">
-        <v>376.21320158206902</v>
+        <v>376.213201582069</v>
       </c>
       <c r="I23">
-        <v>4706.0645492922731</v>
+        <v>4706.064549292273</v>
       </c>
       <c r="J23">
-        <v>5922.0573974263689</v>
-      </c>
-      <c r="K23" s="2">
-        <v>10.678878695869431</v>
-      </c>
-      <c r="L23" s="2">
-        <v>11.459820748427351</v>
-      </c>
-      <c r="M23" s="2">
-        <v>12.920138199479741</v>
-      </c>
-      <c r="N23" s="2">
+        <v>5922.057397426369</v>
+      </c>
+      <c r="K23">
+        <v>10.67887869586943</v>
+      </c>
+      <c r="L23">
+        <v>11.45982074842735</v>
+      </c>
+      <c r="M23">
+        <v>12.92013819947974</v>
+      </c>
+      <c r="N23">
         <v>13.7966010760516</v>
       </c>
-      <c r="O23" s="2">
-        <v>16.258553022080122</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="O23">
+        <v>16.25855302208012</v>
+      </c>
+      <c r="P23">
         <v>15.05502134094044</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24">
         <v>940603</v>
       </c>
@@ -1718,46 +1571,48 @@
         <v>4960005</v>
       </c>
       <c r="D24">
-        <v>8480.1150520819283</v>
+        <v>8480.115052081928</v>
       </c>
       <c r="E24">
-        <v>7952.2570881446482</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
+        <v>7952.257088144648</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="G24">
-        <v>5717.7755947199603</v>
+        <v>5717.77559471996</v>
       </c>
       <c r="H24">
-        <v>342.21782664679301</v>
+        <v>342.217826646793</v>
       </c>
       <c r="I24">
-        <v>4867.0351744855707</v>
+        <v>4867.035174485571</v>
       </c>
       <c r="J24">
         <v>6059.993421366753</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <v>11.09186602095776</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <v>11.82812614801232</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24">
         <v>13.54854606120719</v>
       </c>
-      <c r="N24" s="2">
-        <v>14.359447767733039</v>
-      </c>
-      <c r="O24" s="2">
-        <v>16.869428113117792</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="N24">
+        <v>14.35944776773304</v>
+      </c>
+      <c r="O24">
+        <v>16.86942811311779</v>
+      </c>
+      <c r="P24">
         <v>15.76120414618998</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25">
         <v>940222</v>
       </c>
@@ -1768,46 +1623,48 @@
         <v>5024782</v>
       </c>
       <c r="D25">
-        <v>8649.4787333472614</v>
+        <v>8649.478733347261</v>
       </c>
       <c r="E25">
-        <v>8149.3890562756787</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
+        <v>8149.389056275679</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="G25">
         <v>5838.96775441926</v>
       </c>
       <c r="H25">
-        <v>325.59921709871998</v>
+        <v>325.59921709872</v>
       </c>
       <c r="I25">
-        <v>4945.0150683383426</v>
+        <v>4945.015068338343</v>
       </c>
       <c r="J25">
-        <v>6164.5669715179802</v>
-      </c>
-      <c r="K25" s="2">
+        <v>6164.56697151798</v>
+      </c>
+      <c r="K25">
         <v>10.8702735619785</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>11.53733112393197</v>
       </c>
-      <c r="M25" s="2">
-        <v>13.362203765582001</v>
-      </c>
-      <c r="N25" s="2">
-        <v>14.107322298133271</v>
-      </c>
-      <c r="O25" s="2">
-        <v>16.657623659715011</v>
-      </c>
-      <c r="P25" s="2">
+      <c r="M25">
+        <v>13.362203765582</v>
+      </c>
+      <c r="N25">
+        <v>14.10732229813327</v>
+      </c>
+      <c r="O25">
+        <v>16.65762365971501</v>
+      </c>
+      <c r="P25">
         <v>15.62857677284372</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26">
         <v>985770</v>
       </c>
@@ -1818,46 +1675,48 @@
         <v>5061592</v>
       </c>
       <c r="D26">
-        <v>8795.4292791672215</v>
+        <v>8795.429279167222</v>
       </c>
       <c r="E26">
-        <v>8249.6203995933192</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
+        <v>8249.620399593319</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="G26">
-        <v>5901.3698305670096</v>
+        <v>5901.36983056701</v>
       </c>
       <c r="H26">
-        <v>321.33072325777101</v>
+        <v>321.330723257771</v>
       </c>
       <c r="I26">
-        <v>4961.6186203452444</v>
+        <v>4961.618620345244</v>
       </c>
       <c r="J26">
-        <v>6222.7005538247804</v>
-      </c>
-      <c r="K26" s="2">
-        <v>11.207753126216209</v>
-      </c>
-      <c r="L26" s="2">
+        <v>6222.70055382478</v>
+      </c>
+      <c r="K26">
+        <v>11.20775312621621</v>
+      </c>
+      <c r="L26">
         <v>11.94927708490194</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26">
         <v>13.80579046941217</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26">
         <v>14.55751841801546</v>
       </c>
-      <c r="O26" s="2">
-        <v>17.314772975038171</v>
-      </c>
-      <c r="P26" s="2">
-        <v>16.261617216531771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>17.31477297503817</v>
+      </c>
+      <c r="P26">
+        <v>16.26161721653177</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>1048234</v>
       </c>
@@ -1868,46 +1727,48 @@
         <v>5133964</v>
       </c>
       <c r="D27">
-        <v>8954.1138764514872</v>
+        <v>8954.113876451487</v>
       </c>
       <c r="E27">
-        <v>8428.4698548728556</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
+        <v>8428.469854872856</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="G27">
-        <v>6010.6853789903498</v>
+        <v>6010.68537899035</v>
       </c>
       <c r="H27">
-        <v>329.56138524101499</v>
+        <v>329.561385241015</v>
       </c>
       <c r="I27">
-        <v>5088.7712463445469</v>
+        <v>5088.771246344547</v>
       </c>
       <c r="J27">
         <v>6340.246764231365</v>
       </c>
-      <c r="K27" s="2">
-        <v>11.706730721358831</v>
-      </c>
-      <c r="L27" s="2">
-        <v>12.436824453895049</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="K27">
+        <v>11.70673072135883</v>
+      </c>
+      <c r="L27">
+        <v>12.43682445389505</v>
+      </c>
+      <c r="M27">
         <v>14.49967223967267</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>15.29467842741127</v>
       </c>
-      <c r="O27" s="2">
-        <v>18.065559552522199</v>
-      </c>
-      <c r="P27" s="2">
-        <v>16.966750890134659</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>18.0655595525222</v>
+      </c>
+      <c r="P27">
+        <v>16.96675089013466</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>1139955</v>
       </c>
@@ -1918,46 +1779,48 @@
         <v>5142873</v>
       </c>
       <c r="D28">
-        <v>9062.6307242528474</v>
+        <v>9062.630724252847</v>
       </c>
       <c r="E28">
-        <v>8500.7102151495037</v>
-      </c>
-      <c r="F28" t="s">
-        <v>42</v>
+        <v>8500.710215149504</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="G28">
-        <v>5979.1349744839799</v>
+        <v>5979.13497448398</v>
       </c>
       <c r="H28">
-        <v>341.06418032462398</v>
+        <v>341.064180324624</v>
       </c>
       <c r="I28">
-        <v>5064.9296965251333</v>
+        <v>5064.929696525133</v>
       </c>
       <c r="J28">
-        <v>6320.1991548086044</v>
-      </c>
-      <c r="K28" s="2">
+        <v>6320.199154808604</v>
+      </c>
+      <c r="K28">
         <v>12.57863234953758</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <v>13.41011481568251</v>
       </c>
-      <c r="M28" s="2">
-        <v>15.968721479799051</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="M28">
+        <v>15.96872147979905</v>
+      </c>
+      <c r="N28">
         <v>16.87961560170503</v>
       </c>
-      <c r="O28" s="2">
-        <v>19.926337786927501</v>
-      </c>
-      <c r="P28" s="2">
-        <v>18.669185037777449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>19.9263377869275</v>
+      </c>
+      <c r="P28">
+        <v>18.66918503777745</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>1179445</v>
       </c>
@@ -1968,46 +1831,48 @@
         <v>5099920</v>
       </c>
       <c r="D29">
-        <v>9379.5226392475852</v>
+        <v>9379.522639247585</v>
       </c>
       <c r="E29">
-        <v>8768.6668567166944</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
+        <v>8768.666856716694</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="G29">
-        <v>6148.1792774591804</v>
+        <v>6148.17927745918</v>
       </c>
       <c r="H29">
-        <v>329.73967347990299</v>
+        <v>329.739673479903</v>
       </c>
       <c r="I29">
-        <v>5124.1930973177068</v>
+        <v>5124.193097317707</v>
       </c>
       <c r="J29">
-        <v>6477.9189509390844</v>
-      </c>
-      <c r="K29" s="2">
+        <v>6477.918950939084</v>
+      </c>
+      <c r="K29">
         <v>12.57468045404296</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <v>13.45067636018763</v>
       </c>
-      <c r="M29" s="2">
-        <v>16.114202846713209</v>
-      </c>
-      <c r="N29" s="2">
-        <v>16.978441143170301</v>
-      </c>
-      <c r="O29" s="2">
-        <v>20.371304909380139</v>
-      </c>
-      <c r="P29" s="2">
+      <c r="M29">
+        <v>16.11420284671321</v>
+      </c>
+      <c r="N29">
+        <v>16.9784411431703</v>
+      </c>
+      <c r="O29">
+        <v>20.37130490938014</v>
+      </c>
+      <c r="P29">
         <v>19.13967487075093</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30">
         <v>1174346</v>
       </c>
@@ -2018,43 +1883,45 @@
         <v>5068372</v>
       </c>
       <c r="D30">
-        <v>9600.3327160301596</v>
+        <v>9600.33271603016</v>
       </c>
       <c r="E30">
-        <v>8914.2484603237936</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
+        <v>8914.248460323794</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="G30">
-        <v>6280.8922395355303</v>
+        <v>6280.89223953553</v>
       </c>
       <c r="H30">
-        <v>321.34670650229498</v>
+        <v>321.346706502295</v>
       </c>
       <c r="I30">
-        <v>5217.3641101956491</v>
+        <v>5217.364110195649</v>
       </c>
       <c r="J30">
-        <v>6602.2389460378254</v>
-      </c>
-      <c r="K30" s="2">
+        <v>6602.238946037825</v>
+      </c>
+      <c r="K30">
         <v>12.2323468856359</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30">
         <v>13.17380826019005</v>
       </c>
-      <c r="M30" s="2">
-        <v>15.832507858978831</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="M30">
+        <v>15.83250785897883</v>
+      </c>
+      <c r="N30">
         <v>16.64253994711585</v>
       </c>
-      <c r="O30" s="2">
-        <v>20.035021093454059</v>
-      </c>
-      <c r="P30" s="2">
-        <v>18.872622792449459</v>
+      <c r="O30">
+        <v>20.03502109345406</v>
+      </c>
+      <c r="P30">
+        <v>18.87262279244946</v>
       </c>
     </row>
   </sheetData>
@@ -2063,46 +1930,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tasa1=poblacion_afiliada/`Fuerza.de.trabajo.(Total)`/10,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tasa2=poblacion_afiliada/`Ocupados.(Total)`/10,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tasa3=poblacion_afiliada_sindicatos_dependientes/Dependientes/10,               ## considera sector privado, publico y servicio domestico</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tasa4=poblacion_afiliada_sindicatos_dependientes/`Asalariados.(Total)./4`/10,   ## considera sector público y privado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tasa5=poblacion_afiliada_sindicatos_dependientes/`Asalariados.(Sector.privado)`/10,  ## solo sector privado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tasa6=poblacion_afiliada_sindicatos_dependientes/(`Asalariados.(Sector.privado)`+`Personal.de.servicio.doméstico.(Total)./6`</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output/Nuevo/Tasas_actualizadas.xlsx
+++ b/Output/Nuevo/Tasas_actualizadas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,6 +1922,58 @@
       </c>
       <c r="P30">
         <v>18.87262279244946</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1193104</v>
+      </c>
+      <c r="B31">
+        <v>1066996</v>
+      </c>
+      <c r="C31">
+        <v>5645481.481481481</v>
+      </c>
+      <c r="D31">
+        <v>9777.751505887172</v>
+      </c>
+      <c r="E31">
+        <v>9087.132384046394</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>6451.45796048588</v>
+      </c>
+      <c r="H31">
+        <v>310.937867735058</v>
+      </c>
+      <c r="I31">
+        <v>5334.808940899126</v>
+      </c>
+      <c r="J31">
+        <v>6762.395828220938</v>
+      </c>
+      <c r="K31">
+        <v>12.20223278615368</v>
+      </c>
+      <c r="L31">
+        <v>13.12959853093639</v>
+      </c>
+      <c r="M31">
+        <v>15.77837244526851</v>
+      </c>
+      <c r="N31">
+        <v>16.53883519872834</v>
+      </c>
+      <c r="O31">
+        <v>20.00064129419729</v>
+      </c>
+      <c r="P31">
+        <v>18.8991117768196</v>
       </c>
     </row>
   </sheetData>
